--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78592FD3-E593-498D-ACA8-EBB701D72B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01978DEF-2868-4C3E-8D29-BC2B13EA3DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>RequireSpeicalAbilFlower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순보 속도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,6 +530,7 @@
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -561,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -573,13 +582,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -590,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -602,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -619,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -637,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -648,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -666,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -677,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -695,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -706,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -724,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -735,10 +744,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -753,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01978DEF-2868-4C3E-8D29-BC2B13EA3DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62FEF4-605D-4671-BBBC-C168422F7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>순보 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 보스 체력 5% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -617,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62FEF4-605D-4671-BBBC-C168422F7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277AFA44-7314-4888-9D8B-37073DDA3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>1000</v>
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>1000</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277AFA44-7314-4888-9D8B-37073DDA3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596DD1F-27E7-49D9-B83E-F3A5E9E7A50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>스테이지 보스 체력 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 요괴 10마리 추가 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계 꽃 보유효과 강화
+(천상베기 레벨당 0.15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +214,9 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +546,7 @@
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -673,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -682,7 +694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -701,8 +713,8 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596DD1F-27E7-49D9-B83E-F3A5E9E7A50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF76181-5430-4EBD-91F7-8DAAEE217E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF76181-5430-4EBD-91F7-8DAAEE217E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F549B39-4C6D-41DD-A2CE-CC31B3DF9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 요괴 10마리 추가 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천계 꽃 보유효과 강화
 (천상베기 레벨당 0.15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 요괴 5마리 추가 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F549B39-4C6D-41DD-A2CE-CC31B3DF9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86395B-E52A-4895-A955-C92A16FB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86395B-E52A-4895-A955-C92A16FB8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C0D35-C820-43AD-A00A-66FBA4389C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>람선녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자선녀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
   </si>
   <si>
     <t>SpecialAbilDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,6 +135,18 @@
   </si>
   <si>
     <t>스테이지 요괴 5마리 추가 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형 효과 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남선녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기 능력치 미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -595,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>0</v>
@@ -624,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -653,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -682,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -711,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -728,28 +732,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -757,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>36</v>
@@ -769,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1000</v>
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C0D35-C820-43AD-A00A-66FBA4389C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906D752-8AB6-42D5-8A87-1195A94A7DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -129,24 +129,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스테이지 요괴 5마리 추가 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형 효과 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남선녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기 능력치 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>천계 꽃 보유효과 강화
-(천상베기 레벨당 0.15%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 요괴 5마리 추가 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외형 효과 10% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남선녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검기 능력치 미정</t>
+(천상베기 개수당 0.15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>36</v>
@@ -747,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906D752-8AB6-42D5-8A87-1195A94A7DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13A32C-D19A-490B-A611-390D071BFB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -146,7 +146,7 @@
   </si>
   <si>
     <t>천계 꽃 보유효과 강화
-(천상베기 개수당 0.15%)</t>
+(천상베기 개당 0.15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13A32C-D19A-490B-A611-390D071BFB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1414EA-AB64-42F2-9C07-5E535C668644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1414EA-AB64-42F2-9C07-5E535C668644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DA32C-677F-4725-9F9C-2DB7253585E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검기 능력치 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천계 꽃 보유효과 강화
 (천상베기 개당 0.15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기 효과 20% 상승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DA32C-677F-4725-9F9C-2DB7253585E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB39E44-1CD7-47C9-B524-D9B7D1318C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>

--- a/Assets/06.Table/ChunMarkAbil.xlsx
+++ b/Assets/06.Table/ChunMarkAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB39E44-1CD7-47C9-B524-D9B7D1318C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406AADA8-9BED-414F-9348-1FB497C75B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunMarkAbil" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -741,7 +741,7 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
